--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8959BD1-151D-4ABA-9662-2231BEDB634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46307DFB-CD4F-4DD1-BC5E-16B9F18CA836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="20" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,11 @@
     <sheet name="Kriegshammer" sheetId="11" r:id="rId12"/>
     <sheet name="Speer" sheetId="13" r:id="rId13"/>
     <sheet name="Hellebarde" sheetId="14" r:id="rId14"/>
-    <sheet name="Faust" sheetId="15" r:id="rId15"/>
-    <sheet name="Schlagring" sheetId="16" r:id="rId16"/>
-    <sheet name="Faustmesser" sheetId="17" r:id="rId17"/>
-    <sheet name="Metallkrallen" sheetId="18" r:id="rId18"/>
-    <sheet name="Leichter Schild" sheetId="19" r:id="rId19"/>
+    <sheet name="Schlagring" sheetId="16" r:id="rId15"/>
+    <sheet name="Faustmesser" sheetId="17" r:id="rId16"/>
+    <sheet name="Metallkrallen" sheetId="18" r:id="rId17"/>
+    <sheet name="Leichter Schild" sheetId="19" r:id="rId18"/>
+    <sheet name="Faust" sheetId="15" r:id="rId19"/>
     <sheet name="Schild" sheetId="20" r:id="rId20"/>
     <sheet name="Turmschild" sheetId="21" r:id="rId21"/>
   </sheets>
@@ -912,7 +912,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1265,128 +1265,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="17.5234375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005019A2-2BF6-4761-8C2B-4E637A930ABB}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1505,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506013A-8732-4C20-B9DC-BB91394723FF}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1628,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5D771-CE0C-45C7-900C-48AF3EA98946}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1748,7 +1626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1855,6 +1733,128 @@
       </c>
       <c r="B12">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="17.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2115,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2323,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2445,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2481,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46307DFB-CD4F-4DD1-BC5E-16B9F18CA836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252FBAC6-607B-4A89-A8AA-A7DA43971EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-28920" yWindow="8235" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="20" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -2115,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2481,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252FBAC6-607B-4A89-A8AA-A7DA43971EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8DF4A-3BA8-4648-8529-9D15C19BE681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8235" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="20" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="25" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,17 @@
     <sheet name="Schlagring" sheetId="16" r:id="rId15"/>
     <sheet name="Faustmesser" sheetId="17" r:id="rId16"/>
     <sheet name="Metallkrallen" sheetId="18" r:id="rId17"/>
-    <sheet name="Leichter Schild" sheetId="19" r:id="rId18"/>
-    <sheet name="Faust" sheetId="15" r:id="rId19"/>
+    <sheet name="Faust" sheetId="15" r:id="rId18"/>
+    <sheet name="Leichter Schild" sheetId="19" r:id="rId19"/>
     <sheet name="Schild" sheetId="20" r:id="rId20"/>
     <sheet name="Turmschild" sheetId="21" r:id="rId21"/>
+    <sheet name="Wurfaxt" sheetId="26" r:id="rId22"/>
+    <sheet name="Wurfmesser" sheetId="23" r:id="rId23"/>
+    <sheet name="Bola" sheetId="24" r:id="rId24"/>
+    <sheet name="Schwere Bola" sheetId="25" r:id="rId25"/>
+    <sheet name="Pilum" sheetId="27" r:id="rId26"/>
+    <sheet name="Handsand" sheetId="29" r:id="rId27"/>
+    <sheet name="Stein" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="60">
   <si>
     <t>Typ</t>
   </si>
@@ -197,6 +204,42 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>Wurfwert</t>
+  </si>
+  <si>
+    <t>Anzahl im Köcher</t>
+  </si>
+  <si>
+    <t>Zerstörungschance</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>Wurfwaffe</t>
+  </si>
+  <si>
+    <t>Wurfmesser</t>
+  </si>
+  <si>
+    <t>Bola</t>
+  </si>
+  <si>
+    <t>Schwere Bola</t>
+  </si>
+  <si>
+    <t>Wurfaxt</t>
+  </si>
+  <si>
+    <t>Pilum</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Handsand</t>
   </si>
 </sst>
 </file>
@@ -232,9 +275,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -549,18 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D7D18B-70B8-4FDD-ABF1-1C94B30B1429}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.20703125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -568,7 +612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -584,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -592,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -600,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -608,7 +652,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -616,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -624,7 +668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -632,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -640,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -648,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -656,12 +700,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -671,15 +723,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81027427-C090-4647-B551-B93E1186E71B}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -687,7 +739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -695,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -703,7 +755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -711,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -719,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -727,7 +779,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -735,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -743,7 +795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -751,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -759,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -767,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -775,12 +827,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -790,15 +850,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9439AB9-5F0F-463B-A478-6F2BBF75005C}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -806,7 +866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -822,7 +882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -830,7 +890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -838,7 +898,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -846,7 +906,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -854,7 +914,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -862,7 +922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -870,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -878,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -886,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -894,12 +954,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -909,15 +977,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2387C0A-4B90-4FE3-AD96-62BE4E332B1B}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -925,7 +993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -933,7 +1001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -941,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -957,7 +1025,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -965,7 +1033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -973,7 +1041,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -981,7 +1049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -989,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -997,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1013,12 +1081,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1028,15 +1104,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE2E44-CDE2-427C-A3A7-899328A853C7}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1044,7 +1120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1152,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1160,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1100,7 +1176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1116,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1132,12 +1208,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -1147,15 +1231,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64249751-20BC-4911-A078-6C1529F2B09A}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1287,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1251,12 +1335,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1266,15 +1358,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005019A2-2BF6-4761-8C2B-4E637A930ABB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1282,7 +1374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1406,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1370,12 +1462,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1385,19 +1485,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506013A-8732-4C20-B9DC-BB91394723FF}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1537,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1585,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1493,12 +1593,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1508,15 +1616,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5D771-CE0C-45C7-900C-48AF3EA98946}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1524,7 +1632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1664,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1612,12 +1720,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1627,19 +1743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1647,23 +1763,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1671,15 +1787,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1711,36 +1827,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1749,19 +1873,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5234375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1769,23 +1893,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1793,15 +1917,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1825,7 +1949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1833,36 +1957,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1872,18 +2004,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68329C14-23BA-4C04-9BC0-63F19F4F7F52}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.68359375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1891,7 +2023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +2031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +2039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +2055,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +2063,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +2071,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +2079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1955,7 +2087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1971,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1979,12 +2111,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1994,15 +2134,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEF8A7E-528B-4762-83A5-07184E03B9C9}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2010,7 +2150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2182,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2050,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2058,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2074,7 +2214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2090,20 +2230,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2113,18 +2261,18 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2132,7 +2280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2312,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2196,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2204,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2220,12 +2368,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -2233,20 +2389,947 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F75A0B6-E117-4EEE-9E50-A9C870D89D86}">
-  <dimension ref="A1:B13"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF5DD0-7421-4FE9-973F-27A65B9FF438}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC1811D-D322-4063-85A9-1858F93CB672}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9ECFBF-C382-403B-B179-3E5C84026B38}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D50878-4907-4778-8490-2D8295CF29C2}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6114A-6C32-4DF1-8D26-3A2EA5B3C580}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1015625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2254,7 +3337,162 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F75A0B6-E117-4EEE-9E50-A9C870D89D86}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +3500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2286,7 +3524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +3532,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2302,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2310,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2318,7 +3556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +3564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2334,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2342,12 +3580,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -2357,18 +3603,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910942-E332-4339-99DE-B12F26CD42C8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.41796875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2376,7 +3622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2392,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +3654,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +3662,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +3670,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2432,7 +3678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +3686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +3694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2464,12 +3710,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2479,18 +3733,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5234375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2501,7 +3755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +3763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2517,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2533,7 +3787,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +3795,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2552,7 +3806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2560,7 +3814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +3822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2576,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2584,7 +3838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2592,12 +3846,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2607,18 +3869,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFD3F3-BE1B-4209-93D0-821D0CBBA4E2}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.89453125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +3888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +3896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +3904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +3912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +3928,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2674,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2682,7 +3944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2690,7 +3952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2698,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2706,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2714,12 +3976,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2729,15 +3999,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2745,7 +4015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +4023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +4031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +4039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2777,7 +4047,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +4055,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +4071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +4079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2817,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2825,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2833,12 +4103,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2848,15 +4126,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD18F0-BFD3-42C5-B992-9BBCF36559D3}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2864,7 +4142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +4150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +4158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +4166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +4182,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +4190,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2920,7 +4198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2928,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2936,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2944,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2952,12 +4230,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2967,15 +4253,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1830845-6122-4F08-B917-C36013027DDE}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2983,7 +4269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +4277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2999,7 +4285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +4293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +4301,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3023,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3039,7 +4325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +4333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3055,7 +4341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3063,7 +4349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3071,12 +4357,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8DF4A-3BA8-4648-8529-9D15C19BE681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A293DC4D-5955-45D1-99EB-9CB19883005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="25" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="12375" yWindow="1875" windowWidth="13170" windowHeight="11385" firstSheet="11" activeTab="12" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,22 @@
     <sheet name="Großaxt" sheetId="10" r:id="rId11"/>
     <sheet name="Kriegshammer" sheetId="11" r:id="rId12"/>
     <sheet name="Speer" sheetId="13" r:id="rId13"/>
-    <sheet name="Hellebarde" sheetId="14" r:id="rId14"/>
-    <sheet name="Schlagring" sheetId="16" r:id="rId15"/>
-    <sheet name="Faustmesser" sheetId="17" r:id="rId16"/>
-    <sheet name="Metallkrallen" sheetId="18" r:id="rId17"/>
-    <sheet name="Faust" sheetId="15" r:id="rId18"/>
-    <sheet name="Leichter Schild" sheetId="19" r:id="rId19"/>
-    <sheet name="Schild" sheetId="20" r:id="rId20"/>
-    <sheet name="Turmschild" sheetId="21" r:id="rId21"/>
-    <sheet name="Wurfaxt" sheetId="26" r:id="rId22"/>
-    <sheet name="Wurfmesser" sheetId="23" r:id="rId23"/>
-    <sheet name="Bola" sheetId="24" r:id="rId24"/>
-    <sheet name="Schwere Bola" sheetId="25" r:id="rId25"/>
-    <sheet name="Pilum" sheetId="27" r:id="rId26"/>
-    <sheet name="Handsand" sheetId="29" r:id="rId27"/>
-    <sheet name="Stein" sheetId="28" r:id="rId28"/>
+    <sheet name="Pike" sheetId="30" r:id="rId14"/>
+    <sheet name="Hellebarde" sheetId="14" r:id="rId15"/>
+    <sheet name="Schlagring" sheetId="16" r:id="rId16"/>
+    <sheet name="Faustmesser" sheetId="17" r:id="rId17"/>
+    <sheet name="Metallkrallen" sheetId="18" r:id="rId18"/>
+    <sheet name="Faust" sheetId="15" r:id="rId19"/>
+    <sheet name="Leichter Schild" sheetId="19" r:id="rId20"/>
+    <sheet name="Schild" sheetId="20" r:id="rId21"/>
+    <sheet name="Turmschild" sheetId="21" r:id="rId22"/>
+    <sheet name="Wurfaxt" sheetId="26" r:id="rId23"/>
+    <sheet name="Wurfmesser" sheetId="23" r:id="rId24"/>
+    <sheet name="Bola" sheetId="24" r:id="rId25"/>
+    <sheet name="Schwere Bola" sheetId="25" r:id="rId26"/>
+    <sheet name="Pilum" sheetId="27" r:id="rId27"/>
+    <sheet name="Handsand" sheetId="29" r:id="rId28"/>
+    <sheet name="Stein" sheetId="28" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
   <si>
     <t>Typ</t>
   </si>
@@ -1106,6 +1107,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE2E44-CDE2-427C-A3A7-899328A853C7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620CD1D-1128-4865-8FC5-9C37A2B4C161}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
@@ -1149,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1349,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64249751-20BC-4911-A078-6C1529F2B09A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1276,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005019A2-2BF6-4761-8C2B-4E637A930ABB}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1483,7 +1611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506013A-8732-4C20-B9DC-BB91394723FF}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1614,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5D771-CE0C-45C7-900C-48AF3EA98946}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1742,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1865,136 +1993,6 @@
       </c>
       <c r="B14">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2133,6 +2131,136 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEF8A7E-528B-4762-83A5-07184E03B9C9}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2259,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2389,12 +2517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF5DD0-7421-4FE9-973F-27A65B9FF438}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,12 +2672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC1811D-D322-4063-85A9-1858F93CB672}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,12 +2826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9ECFBF-C382-403B-B179-3E5C84026B38}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2948,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,12 +2980,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,7 +3102,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,12 +3134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D50878-4907-4778-8490-2D8295CF29C2}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3264,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,12 +3289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6114A-6C32-4DF1-8D26-3A2EA5B3C580}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3411,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3419,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,12 +3444,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A293DC4D-5955-45D1-99EB-9CB19883005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D281F-8B25-4686-B9BE-39FD8115FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="1875" windowWidth="13170" windowHeight="11385" firstSheet="11" activeTab="12" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Streitkolben" sheetId="3" r:id="rId4"/>
     <sheet name="Dolch" sheetId="12" r:id="rId5"/>
     <sheet name="Bogen" sheetId="5" r:id="rId6"/>
-    <sheet name="Armbrust" sheetId="6" r:id="rId7"/>
-    <sheet name="Muskete" sheetId="7" r:id="rId8"/>
-    <sheet name="Schleuder" sheetId="8" r:id="rId9"/>
+    <sheet name="Einhandarmbrust" sheetId="31" r:id="rId7"/>
+    <sheet name="Armbrust" sheetId="6" r:id="rId8"/>
+    <sheet name="Muskete" sheetId="7" r:id="rId9"/>
     <sheet name="Großschwert" sheetId="4" r:id="rId10"/>
     <sheet name="Großaxt" sheetId="10" r:id="rId11"/>
     <sheet name="Kriegshammer" sheetId="11" r:id="rId12"/>
@@ -35,13 +35,14 @@
     <sheet name="Leichter Schild" sheetId="19" r:id="rId20"/>
     <sheet name="Schild" sheetId="20" r:id="rId21"/>
     <sheet name="Turmschild" sheetId="21" r:id="rId22"/>
-    <sheet name="Wurfaxt" sheetId="26" r:id="rId23"/>
-    <sheet name="Wurfmesser" sheetId="23" r:id="rId24"/>
-    <sheet name="Bola" sheetId="24" r:id="rId25"/>
-    <sheet name="Schwere Bola" sheetId="25" r:id="rId26"/>
-    <sheet name="Pilum" sheetId="27" r:id="rId27"/>
-    <sheet name="Handsand" sheetId="29" r:id="rId28"/>
-    <sheet name="Stein" sheetId="28" r:id="rId29"/>
+    <sheet name="Schleuder" sheetId="8" r:id="rId23"/>
+    <sheet name="Wurfaxt" sheetId="26" r:id="rId24"/>
+    <sheet name="Wurfmesser" sheetId="23" r:id="rId25"/>
+    <sheet name="Bola" sheetId="24" r:id="rId26"/>
+    <sheet name="Schwere Bola" sheetId="25" r:id="rId27"/>
+    <sheet name="Pilum" sheetId="27" r:id="rId28"/>
+    <sheet name="Handsand" sheetId="29" r:id="rId29"/>
+    <sheet name="Stein" sheetId="28" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="58">
   <si>
     <t>Typ</t>
   </si>
@@ -177,18 +178,6 @@
     <t>Metallkrallen</t>
   </si>
   <si>
-    <t>Referenz</t>
-  </si>
-  <si>
-    <t>Standardwert</t>
-  </si>
-  <si>
-    <t>Fernkampfwert</t>
-  </si>
-  <si>
-    <t>Großwaffenwert</t>
-  </si>
-  <si>
     <t>Leichter Schild</t>
   </si>
   <si>
@@ -241,6 +230,12 @@
   </si>
   <si>
     <t>Handsand</t>
+  </si>
+  <si>
+    <t>Turmschild</t>
+  </si>
+  <si>
+    <t>Einhandarmbrust</t>
   </si>
 </sst>
 </file>
@@ -594,26 +589,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D7D18B-70B8-4FDD-ABF1-1C94B30B1429}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -629,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -637,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -645,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -653,7 +648,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -661,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -669,7 +664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -677,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -685,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -693,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -701,19 +696,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.2</v>
       </c>
     </row>
@@ -724,23 +711,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81027427-C090-4647-B551-B93E1186E71B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -756,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -764,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -772,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -780,7 +767,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -788,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -796,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -804,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -812,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -820,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -828,19 +815,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.2</v>
       </c>
     </row>
@@ -851,23 +830,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9439AB9-5F0F-463B-A478-6F2BBF75005C}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -883,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -891,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -899,7 +878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -907,7 +886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -915,7 +894,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -923,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -931,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -939,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -947,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -955,19 +934,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.3</v>
       </c>
     </row>
@@ -978,23 +949,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2387C0A-4B90-4FE3-AD96-62BE4E332B1B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +997,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1013,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1082,19 +1053,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.4</v>
       </c>
     </row>
@@ -1105,23 +1068,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE2E44-CDE2-427C-A3A7-899328A853C7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1129,15 +1092,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1209,19 +1172,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>1.3</v>
       </c>
     </row>
@@ -1232,23 +1187,23 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620CD1D-1128-4865-8FC5-9C37A2B4C161}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1256,15 +1211,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1235,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1243,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1336,19 +1291,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.7</v>
       </c>
     </row>
@@ -1359,23 +1306,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64249751-20BC-4911-A078-6C1529F2B09A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1383,15 +1330,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1354,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1463,19 +1410,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.5</v>
       </c>
     </row>
@@ -1486,23 +1425,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005019A2-2BF6-4761-8C2B-4E637A930ABB}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1526,15 +1465,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1542,15 +1481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1590,19 +1529,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.1</v>
       </c>
     </row>
@@ -1613,27 +1544,27 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506013A-8732-4C20-B9DC-BB91394723FF}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="2" max="2" width="12.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1657,15 +1588,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1689,15 +1620,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1721,19 +1652,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.1</v>
       </c>
     </row>
@@ -1744,23 +1667,23 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5D771-CE0C-45C7-900C-48AF3EA98946}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1784,23 +1707,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1840,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1848,19 +1771,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.1</v>
       </c>
     </row>
@@ -1872,26 +1787,26 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FCBBA-218A-4F58-83D7-867B0EAA9796}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +1822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1955,7 +1870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +1878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1971,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1979,19 +1894,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -2002,26 +1909,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68329C14-23BA-4C04-9BC0-63F19F4F7F52}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2037,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +1960,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +1968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +1976,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +1992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2109,19 +2016,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.7</v>
       </c>
     </row>
@@ -2132,42 +2031,42 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7AF08E-0057-4976-87F7-78B4F8771816}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +2082,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2231,27 +2130,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.5</v>
       </c>
     </row>
@@ -2262,39 +2153,39 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEF8A7E-528B-4762-83A5-07184E03B9C9}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2201,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2326,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2358,27 +2249,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.5</v>
       </c>
     </row>
@@ -2389,42 +2272,42 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED2F8E-94AE-4F2F-AB7E-6B6A004FC599}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2440,7 +2323,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2464,7 +2347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2480,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2496,19 +2379,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.3</v>
       </c>
     </row>
@@ -2518,43 +2393,183 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF5DD0-7421-4FE9-973F-27A65B9FF438}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1830845-6122-4F08-B917-C36013027DDE}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF5DD0-7421-4FE9-973F-27A65B9FF438}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2593,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +2609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2626,43 +2641,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>2</v>
       </c>
     </row>
@@ -2672,44 +2679,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC1811D-D322-4063-85A9-1858F93CB672}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2740,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2748,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2765,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2781,198 +2788,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9ECFBF-C382-403B-B179-3E5C84026B38}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2981,51 +2826,51 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9ECFBF-C382-403B-B179-3E5C84026B38}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3049,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +2902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +2910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3073,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3081,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3089,43 +2934,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3135,43 +2972,43 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D50878-4907-4778-8490-2D8295CF29C2}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3179,31 +3016,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3211,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3219,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3227,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3235,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3243,122 +3080,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6114A-6C32-4DF1-8D26-3A2EA5B3C580}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D50878-4907-4778-8490-2D8295CF29C2}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3382,15 +3210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3398,43 +3226,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3445,43 +3265,43 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6114A-6C32-4DF1-8D26-3A2EA5B3C580}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3489,15 +3309,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3513,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3521,7 +3341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3529,23 +3349,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3553,43 +3373,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -3601,26 +3413,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F75A0B6-E117-4EEE-9E50-A9C870D89D86}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3644,15 +3456,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3660,7 +3472,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3668,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3684,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +3504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3700,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3708,19 +3520,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.3</v>
       </c>
     </row>
@@ -3729,28 +3533,175 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1DEB4-6B1D-425D-BDCA-FC115096EC2C}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910942-E332-4339-99DE-B12F26CD42C8}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3766,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3782,7 +3733,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3790,7 +3741,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3749,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3814,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3822,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3838,19 +3789,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.4</v>
       </c>
     </row>
@@ -3861,29 +3804,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3899,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3907,23 +3850,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3934,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3942,7 +3885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3958,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3966,7 +3909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3974,20 +3917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3997,26 +3932,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFD3F3-BE1B-4209-93D0-821D0CBBA4E2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +3959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4040,7 +3975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4048,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4056,7 +3991,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4064,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4080,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4096,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4104,19 +4039,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>
@@ -4126,32 +4053,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E794300-3383-4EFB-9AD1-7E8739EA13EE}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16.87890625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4159,23 +4089,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4183,7 +4113,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4191,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4199,7 +4129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4215,15 +4145,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4231,19 +4161,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>
@@ -4253,32 +4175,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD18F0-BFD3-42C5-B992-9BBCF36559D3}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4294,39 +4216,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4334,7 +4256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4350,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4358,19 +4280,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="B13">
         <v>0.05</v>
       </c>
     </row>
@@ -4380,32 +4294,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1830845-6122-4F08-B917-C36013027DDE}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD18F0-BFD3-42C5-B992-9BBCF36559D3}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4413,47 +4327,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4461,23 +4375,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4485,20 +4399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D281F-8B25-4686-B9BE-39FD8115FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C09923-CA20-413E-90ED-090D3D32367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="26" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,14 @@
     <sheet name="Faustmesser" sheetId="17" r:id="rId17"/>
     <sheet name="Metallkrallen" sheetId="18" r:id="rId18"/>
     <sheet name="Faust" sheetId="15" r:id="rId19"/>
-    <sheet name="Leichter Schild" sheetId="19" r:id="rId20"/>
+    <sheet name="LeichterSchild" sheetId="19" r:id="rId20"/>
     <sheet name="Schild" sheetId="20" r:id="rId21"/>
     <sheet name="Turmschild" sheetId="21" r:id="rId22"/>
     <sheet name="Schleuder" sheetId="8" r:id="rId23"/>
     <sheet name="Wurfaxt" sheetId="26" r:id="rId24"/>
     <sheet name="Wurfmesser" sheetId="23" r:id="rId25"/>
     <sheet name="Bola" sheetId="24" r:id="rId26"/>
-    <sheet name="Schwere Bola" sheetId="25" r:id="rId27"/>
+    <sheet name="SchwereBola" sheetId="25" r:id="rId27"/>
     <sheet name="Pilum" sheetId="27" r:id="rId28"/>
     <sheet name="Handsand" sheetId="29" r:id="rId29"/>
     <sheet name="Stein" sheetId="28" r:id="rId30"/>
@@ -595,12 +595,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -608,7 +608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -717,9 +717,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -727,7 +727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -783,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -836,9 +836,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -846,7 +846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -862,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -910,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -955,9 +955,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -965,7 +965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1074,9 +1074,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1193,9 +1193,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1312,9 +1312,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1431,9 +1431,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1550,13 +1550,13 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
-    <col min="2" max="2" width="12.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1673,9 +1673,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1793,12 +1793,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.52734375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1915,12 +1915,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.64453125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2037,12 +2037,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.64453125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2159,9 +2159,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2278,12 +2278,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2400,9 +2400,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2540,12 +2540,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2687,12 +2687,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2833,12 +2833,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2975,16 +2975,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3125,12 +3125,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3272,12 +3272,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3419,12 +3419,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.234375" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3541,12 +3541,12 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.234375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3688,12 +3688,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3806,16 +3806,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED0043-2153-412E-BBD5-F7ED819662E5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.52734375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3938,12 +3938,12 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.76171875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4060,12 +4060,12 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.87890625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4182,9 +4182,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4301,9 +4301,9 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C09923-CA20-413E-90ED-090D3D32367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59596F-6C4D-4F69-99A7-8182883E2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="26" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="14" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Schwert" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <sheet name="Handsand" sheetId="29" r:id="rId29"/>
     <sheet name="Stein" sheetId="28" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64249751-20BC-4911-A078-6C1529F2B09A}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC69E7C-4A36-4026-AAA9-627EF6A8B254}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ACBB50-BC41-4C27-ACF3-4964964CE2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64F168-377B-41EF-A37E-C487BB083C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
   <si>
     <t>Schwert</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Schlag</t>
   </si>
   <si>
-    <t>LeichterSchild</t>
-  </si>
-  <si>
     <t>Giftbiss</t>
   </si>
   <si>
@@ -350,6 +347,15 @@
   </si>
   <si>
     <t>Verraetersende</t>
+  </si>
+  <si>
+    <t>Hraggstahl</t>
+  </si>
+  <si>
+    <t>Grundwaffe</t>
+  </si>
+  <si>
+    <t>Leichter Schild</t>
   </si>
 </sst>
 </file>
@@ -705,9 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P1" t="s">
         <v>30</v>
@@ -777,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="V1" t="s">
         <v>36</v>
@@ -2846,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B175B-F00F-47F8-9A7F-F48C1C0BF04B}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
@@ -2897,16 +2903,16 @@
         <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" t="s">
-        <v>101</v>
-      </c>
       <c r="Q1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2962,7 @@
         <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
@@ -3511,7 +3517,7 @@
         <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
         <v>60</v>
@@ -3797,44 +3803,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3845,8 +3854,11 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3877,11 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3885,8 +3900,11 @@
       <c r="F4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3905,8 +3923,11 @@
       <c r="F5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3925,8 +3946,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3934,7 +3958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3942,7 +3966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3961,8 +3985,11 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3981,8 +4008,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4001,8 +4031,11 @@
       <c r="F11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4021,8 +4054,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4041,23 +4077,26 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4076,8 +4115,11 @@
       <c r="F17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4094,10 +4136,13 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4116,8 +4161,11 @@
       <c r="F19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4136,8 +4184,11 @@
       <c r="F20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4156,13 +4207,16 @@
       <c r="F21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4180,6 +4234,32 @@
       </c>
       <c r="F23">
         <v>10</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D64F168-377B-41EF-A37E-C487BB083C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82339A-C792-4B32-B281-68E8ABF9B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="109">
   <si>
     <t>Schwert</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Leichter Schild</t>
+  </si>
+  <si>
+    <t>Fackel</t>
+  </si>
+  <si>
+    <t>Werkzeug</t>
   </si>
 </sst>
 </file>
@@ -709,19 +715,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -837,13 +843,16 @@
         <v>70</v>
       </c>
       <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -959,13 +968,16 @@
         <v>64</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AN2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1081,13 +1093,16 @@
         <v>4</v>
       </c>
       <c r="AM3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AN3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1203,13 +1218,16 @@
         <v>10</v>
       </c>
       <c r="AM4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AN4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1325,13 +1343,16 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1447,13 +1468,16 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1469,11 +1493,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1513,11 +1537,11 @@
       <c r="AE8">
         <v>100</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1638,8 +1662,11 @@
       <c r="AN9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1755,13 +1782,16 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1882,8 +1912,11 @@
       <c r="AN11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2004,8 +2037,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2121,13 +2157,16 @@
         <v>0.2</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2156,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2185,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2327,13 +2366,16 @@
         <v>61</v>
       </c>
       <c r="AM17" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AN17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2449,13 +2491,16 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2570,14 +2615,17 @@
       <c r="AL19">
         <v>0</v>
       </c>
-      <c r="AM19" t="s">
-        <v>61</v>
+      <c r="AM19">
+        <v>50</v>
       </c>
       <c r="AN19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2693,13 +2741,16 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2815,31 +2866,34 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>20</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>20</v>
       </c>
     </row>
@@ -2857,12 +2911,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2915,7 +2969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3021,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3074,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3127,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3180,12 +3234,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3246,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3458,22 +3512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3526,7 +3580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3579,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3632,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3685,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3738,12 +3792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3805,14 +3859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3835,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3858,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3881,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3927,7 +3981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +4004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3958,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3966,7 +4020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3989,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4012,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4058,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4081,22 +4135,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4119,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4142,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4165,7 +4219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4188,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4211,12 +4265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4239,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82339A-C792-4B32-B281-68E8ABF9B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA7F59-562D-4AE9-9B6A-B367D500CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -717,9 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="U12">
+        <v>50</v>
+      </c>
+      <c r="V12">
         <v>25</v>
       </c>
-      <c r="V12">
-        <v>15</v>
-      </c>
       <c r="W12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -3859,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA7F59-562D-4AE9-9B6A-B367D500CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EAC1B0-876D-4C1D-B3DE-8ED8CE5EDAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="11880" yWindow="792" windowWidth="8088" windowHeight="8880" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -719,15 +719,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1143,13 +1143,13 @@
         <v>0.7</v>
       </c>
       <c r="N4">
+        <v>0.7</v>
+      </c>
+      <c r="O4">
         <v>0.8</v>
       </c>
-      <c r="O4">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="P4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0.5</v>
@@ -1227,7 +1227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1277,16 +1277,16 @@
         <v>0.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S5">
         <v>0.3</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1360,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M6">
         <v>0.7</v>
@@ -1396,7 +1396,7 @@
         <v>0.1</v>
       </c>
       <c r="O6">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="P6">
         <v>0.25</v>
@@ -1405,10 +1405,10 @@
         <v>0.5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T9" t="s">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AA15">
         <v>100</v>
@@ -2215,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="AC15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD15">
         <v>100</v>
@@ -2224,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2911,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3234,12 +3234,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3512,22 +3512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3792,12 +3792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3864,9 +3864,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4135,22 +4135,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4265,12 +4265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EAC1B0-876D-4C1D-B3DE-8ED8CE5EDAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E89B6-48E2-4728-86F9-A3066573E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="792" windowWidth="8088" windowHeight="8880" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
     <sheet name="Monsterwaffen" sheetId="40" r:id="rId2"/>
     <sheet name="Customwaffen" sheetId="51" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -718,16 +718,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R5" sqref="R5"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.4</v>
       </c>
       <c r="S6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2911,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3234,12 +3234,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3512,22 +3512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3792,12 +3792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3864,9 +3864,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4135,22 +4135,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4265,12 +4265,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E89B6-48E2-4728-86F9-A3066573E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E156EE-8A35-4A65-91B2-4BDEBC6AA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="13020" yWindow="-144" windowWidth="17280" windowHeight="10536" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -403,7 +401,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -718,16 +716,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -977,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4">
         <v>25</v>
@@ -1227,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>0.1</v>
       </c>
       <c r="O5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
         <v>0.3</v>
@@ -1280,10 +1278,10 @@
         <v>0.6</v>
       </c>
       <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
         <v>0.6</v>
-      </c>
-      <c r="S5">
-        <v>0.3</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1352,7 +1350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1402,10 +1400,10 @@
         <v>0.25</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R6">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="S6">
         <v>0.8</v>
@@ -1477,7 +1475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="X8">
         <v>100</v>
@@ -1541,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="V12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W12">
         <v>5</v>
@@ -2041,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>0.4</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>0.05</v>
@@ -2079,7 +2077,7 @@
         <v>0.3</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
         <v>1.3</v>
@@ -2166,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2244,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AE16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2909,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3234,12 +3232,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3512,22 +3510,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3792,12 +3790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3864,9 +3862,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4002,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4135,22 +4133,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4217,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4265,12 +4263,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E156EE-8A35-4A65-91B2-4BDEBC6AA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1D138-2E88-42A7-BE5E-042A9AA2F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="-144" windowWidth="17280" windowHeight="10536" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,16 +716,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -850,7 +850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2164,10 +2164,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>40</v>
+      </c>
       <c r="X14">
         <v>15</v>
       </c>
@@ -2193,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2623,7 +2635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2909,12 +2921,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3232,12 +3244,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3510,22 +3522,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3578,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3790,12 +3802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3862,9 +3874,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4133,22 +4145,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4217,7 +4229,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4263,12 +4275,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1D138-2E88-42A7-BE5E-042A9AA2F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6058A1B-5F6F-4E90-92C1-A22744F2DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -716,16 +716,16 @@
   <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T15" sqref="T15"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -850,7 +850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2164,24 +2164,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="Q14">
+        <v>80</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
         <v>60</v>
       </c>
-      <c r="R14">
-        <v>20</v>
-      </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>40</v>
-      </c>
       <c r="X14">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Y14">
         <v>35</v>
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2921,12 +2921,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3244,12 +3244,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3522,22 +3522,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3802,12 +3802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3874,9 +3874,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4145,22 +4145,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4275,12 +4275,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6058A1B-5F6F-4E90-92C1-A22744F2DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB24F04-C5C1-4F7E-B4CA-7225205B121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="112">
   <si>
     <t>Schwert</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Werkzeug</t>
+  </si>
+  <si>
+    <t>Kleines Objekt</t>
+  </si>
+  <si>
+    <t>Mittleres Objekt</t>
+  </si>
+  <si>
+    <t>Großes Objekt</t>
   </si>
 </sst>
 </file>
@@ -713,19 +722,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X14" sqref="X14"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -820,37 +829,46 @@
         <v>49</v>
       </c>
       <c r="AF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -945,13 +963,13 @@
         <v>43</v>
       </c>
       <c r="AF2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AH2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s">
         <v>64</v>
@@ -966,16 +984,25 @@
         <v>64</v>
       </c>
       <c r="AM2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" t="s">
         <v>108</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1073,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="AG3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" t="s">
         <v>21</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>4</v>
       </c>
       <c r="AI3" t="s">
         <v>4</v>
       </c>
       <c r="AJ3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="s">
         <v>4</v>
@@ -1091,16 +1118,25 @@
         <v>4</v>
       </c>
       <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>21</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AR3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1195,37 +1231,46 @@
         <v>3</v>
       </c>
       <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
         <v>25</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
+        <v>45</v>
+      </c>
+      <c r="AI4">
+        <v>25</v>
+      </c>
+      <c r="AJ4">
         <v>8</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>20</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>4</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>7</v>
       </c>
-      <c r="AK4">
-        <v>10</v>
-      </c>
-      <c r="AL4">
-        <v>10</v>
-      </c>
-      <c r="AM4">
-        <v>10</v>
-      </c>
       <c r="AN4">
+        <v>10</v>
+      </c>
+      <c r="AO4">
+        <v>10</v>
+      </c>
+      <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
         <v>80</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1320,37 +1365,46 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AG5">
         <v>0.1</v>
       </c>
       <c r="AH5">
+        <v>0.05</v>
+      </c>
+      <c r="AI5">
         <v>0.2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
+        <v>0.1</v>
+      </c>
+      <c r="AK5">
+        <v>0.2</v>
+      </c>
+      <c r="AL5">
         <v>6</v>
       </c>
-      <c r="AJ5">
-        <v>10</v>
-      </c>
-      <c r="AK5">
-        <v>10</v>
-      </c>
-      <c r="AL5">
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5">
         <v>1</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>0.2</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1454,28 +1508,37 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0.2</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>0.6</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1491,11 +1554,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1535,11 +1598,20 @@
       <c r="AE8">
         <v>100</v>
       </c>
-      <c r="AN8">
+      <c r="AF8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG8">
+        <v>100</v>
+      </c>
+      <c r="AH8">
+        <v>100</v>
+      </c>
+      <c r="AQ8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1663,8 +1735,17 @@
       <c r="AO9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1759,13 +1840,13 @@
         <v>40</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1780,16 +1861,25 @@
         <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
         <v>20</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1913,8 +2003,17 @@
       <c r="AO11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2038,8 +2137,17 @@
       <c r="AO12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2133,38 +2241,47 @@
       <c r="AE13" s="2">
         <v>2.5</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13">
         <v>0.4</v>
       </c>
-      <c r="AG13">
+      <c r="AJ13">
         <v>0.1</v>
       </c>
-      <c r="AH13">
+      <c r="AK13">
         <v>0.8</v>
       </c>
-      <c r="AI13">
+      <c r="AL13">
         <v>0.5</v>
       </c>
-      <c r="AJ13">
+      <c r="AM13">
         <v>1</v>
       </c>
-      <c r="AK13">
+      <c r="AN13">
         <v>0.2</v>
       </c>
-      <c r="AL13">
+      <c r="AO13">
         <v>0.2</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
         <v>0.1</v>
       </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2204,8 +2321,17 @@
       <c r="AE14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF14">
+        <v>20</v>
+      </c>
+      <c r="AG14">
+        <v>30</v>
+      </c>
+      <c r="AH14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2233,8 +2359,17 @@
       <c r="AE15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF15">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>100</v>
+      </c>
+      <c r="AH15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2259,8 +2394,17 @@
       <c r="AE16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2376,16 +2520,25 @@
         <v>61</v>
       </c>
       <c r="AM17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP17" t="s">
         <v>94</v>
       </c>
-      <c r="AN17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2501,16 +2654,25 @@
         <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>1000</v>
       </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2626,16 +2788,25 @@
         <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>50</v>
       </c>
-      <c r="AN19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2751,16 +2922,25 @@
         <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <v>30</v>
       </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2876,34 +3056,43 @@
         <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <v>3</v>
       </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="AN22">
+      <c r="AQ22">
         <v>3</v>
       </c>
-      <c r="AO22">
+      <c r="AR22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="AN23">
+      <c r="AQ23">
         <v>20</v>
       </c>
-      <c r="AO23">
+      <c r="AR23">
         <v>20</v>
       </c>
     </row>
@@ -2921,12 +3110,12 @@
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2979,7 +3168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3244,12 +3433,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3310,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3522,22 +3711,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3590,7 +3779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3643,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3749,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3802,12 +3991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3874,9 +4063,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3899,7 +4088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +4111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3945,7 +4134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +4157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3991,7 +4180,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4014,7 +4203,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4022,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +4219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4145,22 +4334,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +4372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4206,7 +4395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4229,7 +4418,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4252,7 +4441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4275,12 +4464,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4303,7 +4492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB24F04-C5C1-4F7E-B4CA-7225205B121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61197170-1895-4CF7-815A-05825184298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
     <sheet name="Monsterwaffen" sheetId="40" r:id="rId2"/>
     <sheet name="Customwaffen" sheetId="51" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="113">
   <si>
     <t>Schwert</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Großes Objekt</t>
+  </si>
+  <si>
+    <t>Erwachten_kopflosgift</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,17 +727,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -868,7 +871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3103,19 +3106,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B175B-F00F-47F8-9A7F-F48C1C0BF04B}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3123,52 +3127,55 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3179,49 +3186,52 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
       </c>
       <c r="L2" t="s">
         <v>76</v>
       </c>
       <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
         <v>91</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3238,19 +3248,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -3259,22 +3269,25 @@
         <v>4</v>
       </c>
       <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>4</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
       <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3282,52 +3295,55 @@
         <v>10</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>20</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>40</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>40</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>45</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
       <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3338,29 +3354,29 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0.3</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.6</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -3379,8 +3395,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3397,56 +3416,59 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.3</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
       </c>
       <c r="L6">
         <v>0.9</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0.3</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3498,8 +3520,11 @@
       <c r="Q9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3551,8 +3576,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3593,19 +3621,22 @@
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>100</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3657,8 +3688,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3699,34 +3733,37 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0.7</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>4</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3734,52 +3771,55 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
       <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
       <c r="L17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" t="s">
         <v>60</v>
       </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
       <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>94</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>60</v>
       </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3790,49 +3830,52 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2000</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>2000</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>2000</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>15</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>1000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>10000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1000</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3845,47 +3888,50 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19">
-        <v>25</v>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
       <c r="F19">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19">
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19">
         <v>20</v>
       </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19">
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19">
         <v>25</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>12</v>
       </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
+      <c r="P19" t="s">
+        <v>61</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3893,52 +3939,55 @@
         <v>75</v>
       </c>
       <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
         <v>70</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>70</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>98</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>50</v>
       </c>
-      <c r="M20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20">
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20">
         <v>100</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>80</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>100</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3946,57 +3995,60 @@
         <v>3</v>
       </c>
       <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>19</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>5</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4004,25 +4056,25 @@
         <v>100</v>
       </c>
       <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
         <v>7</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
       <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
         <v>100</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>100</v>
-      </c>
-      <c r="I23">
-        <v>1000</v>
       </c>
       <c r="J23">
         <v>1000</v>
@@ -4037,15 +4089,18 @@
         <v>1000</v>
       </c>
       <c r="N23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
         <v>100</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
         <v>10</v>
       </c>
     </row>
@@ -4063,9 +4118,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -4088,7 +4143,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4111,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4134,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4180,7 +4235,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4203,7 +4258,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -4211,7 +4266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4219,7 +4274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4265,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4288,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4311,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4334,22 +4389,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4372,7 +4427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4395,7 +4450,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4418,7 +4473,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4441,7 +4496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4464,12 +4519,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4492,7 +4547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61197170-1895-4CF7-815A-05825184298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3C3D16-1280-4F34-BD88-C6C60467F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
     <sheet name="Monsterwaffen" sheetId="40" r:id="rId2"/>
     <sheet name="Customwaffen" sheetId="51" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="116">
   <si>
     <t>Schwert</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Bogen</t>
-  </si>
-  <si>
     <t>Fernwaffe</t>
   </si>
   <si>
@@ -372,6 +369,18 @@
   </si>
   <si>
     <t>Erwachten_kopflosgift</t>
+  </si>
+  <si>
+    <t>Crätpranke</t>
+  </si>
+  <si>
+    <t>Kurzbogen</t>
+  </si>
+  <si>
+    <t>Langbogen</t>
+  </si>
+  <si>
+    <t>Gesetz des Reichen</t>
   </si>
 </sst>
 </file>
@@ -717,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AR23"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,9 +746,9 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -757,121 +766,124 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" t="s">
         <v>47</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>50</v>
       </c>
       <c r="AE1" t="s">
         <v>49</v>
       </c>
       <c r="AF1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>71</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s">
         <v>65</v>
       </c>
       <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AR1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -891,121 +903,124 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AO2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="AQ2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1025,37 +1040,37 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
         <v>4</v>
@@ -1079,22 +1094,22 @@
         <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s">
         <v>4</v>
       </c>
       <c r="AB3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s">
         <v>4</v>
@@ -1103,28 +1118,28 @@
         <v>4</v>
       </c>
       <c r="AG3" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>21</v>
-      </c>
       <c r="AK3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s">
         <v>4</v>
       </c>
       <c r="AM3" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="AN3" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AO3" t="s">
         <v>4</v>
@@ -1133,13 +1148,16 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1162,104 +1180,104 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.8</v>
-      </c>
-      <c r="M4">
-        <v>0.7</v>
       </c>
       <c r="N4">
         <v>0.7</v>
       </c>
       <c r="O4">
+        <v>0.7</v>
+      </c>
+      <c r="P4">
         <v>0.8</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.6</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.8</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.35</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.75</v>
       </c>
-      <c r="X4">
-        <v>10</v>
-      </c>
       <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
         <v>17</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>22</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>25</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>45</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>25</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>8</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>20</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>7</v>
       </c>
-      <c r="AN4">
-        <v>10</v>
-      </c>
       <c r="AO4">
         <v>10</v>
       </c>
@@ -1267,13 +1285,16 @@
         <v>10</v>
       </c>
       <c r="AQ4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AR4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1296,47 +1317,47 @@
         <v>0.35</v>
       </c>
       <c r="H5">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I5">
         <v>0.15</v>
       </c>
       <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
         <v>0.2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.3</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
       </c>
       <c r="N5">
         <v>0.1</v>
       </c>
       <c r="O5">
+        <v>0.1</v>
+      </c>
+      <c r="P5">
         <v>0.2</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.3</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.6</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.1</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.6</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -1347,67 +1368,70 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>0.3</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.2</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>0.2</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>0.3</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.1</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.05</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.1</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6</v>
       </c>
-      <c r="AM5">
-        <v>10</v>
-      </c>
       <c r="AN5">
         <v>10</v>
       </c>
       <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5">
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0.2</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1436,38 +1460,38 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.9</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.7</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.1</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.35</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.25</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.7</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.8</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -1481,23 +1505,23 @@
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>0.4</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.3</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>0.7</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
@@ -1520,11 +1544,11 @@
         <v>0</v>
       </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0.2</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
         <v>0</v>
       </c>
@@ -1535,33 +1559,39 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>50</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1607,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="X8">
+      <c r="K8">
         <v>100</v>
       </c>
       <c r="Y8">
@@ -1610,11 +1640,14 @@
       <c r="AH8">
         <v>100</v>
       </c>
-      <c r="AQ8">
+      <c r="AI8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1667,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S9" t="s">
         <v>18</v>
       </c>
       <c r="T9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U9" t="s">
         <v>10</v>
@@ -1747,8 +1780,11 @@
       <c r="AR9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1786,11 +1822,11 @@
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>30</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -1798,20 +1834,20 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>75</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>50</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
@@ -1819,11 +1855,11 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>40</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
@@ -1840,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>40</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>30</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>20</v>
       </c>
-      <c r="AH10">
-        <v>10</v>
-      </c>
       <c r="AI10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1873,16 +1909,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>20</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
       <c r="AR10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1908,11 +1947,11 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>50</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1932,20 +1971,20 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>90</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>70</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>100</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
@@ -1971,11 +2010,11 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>100</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -2015,8 +2054,11 @@
       <c r="AR11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2078,17 +2120,17 @@
         <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>50</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>30</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
@@ -2149,10 +2191,13 @@
       <c r="AR12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -2182,25 +2227,25 @@
         <v>0.05</v>
       </c>
       <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="L13">
         <v>0.2</v>
-      </c>
-      <c r="L13">
-        <v>0.3</v>
       </c>
       <c r="M13">
         <v>0.3</v>
       </c>
       <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13">
         <v>1.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.7</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>0.1</v>
       </c>
       <c r="R13">
         <v>0.1</v>
@@ -2209,19 +2254,19 @@
         <v>0.1</v>
       </c>
       <c r="T13">
+        <v>0.1</v>
+      </c>
+      <c r="U13">
         <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0.5</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
       <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
         <v>0.3</v>
-      </c>
-      <c r="X13" s="2">
-        <v>2.5</v>
       </c>
       <c r="Y13" s="2">
         <v>2.5</v>
@@ -2248,116 +2293,116 @@
         <v>2.5</v>
       </c>
       <c r="AG13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AH13" s="2">
         <v>1.3</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AI13" s="2">
         <v>1</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.4</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.1</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.8</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.5</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1</v>
-      </c>
-      <c r="AN13">
-        <v>0.2</v>
       </c>
       <c r="AO13">
         <v>0.2</v>
       </c>
       <c r="AP13">
+        <v>0.2</v>
+      </c>
+      <c r="AQ13">
         <v>0.1</v>
       </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
       <c r="AR13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14">
+        <v>41</v>
+      </c>
+      <c r="R14">
         <v>80</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>30</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
       <c r="T14">
-        <v>60</v>
-      </c>
-      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="U14">
         <v>60</v>
       </c>
       <c r="Y14">
+        <v>60</v>
+      </c>
+      <c r="Z14">
         <v>35</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>15</v>
-      </c>
-      <c r="AA14">
-        <v>100</v>
       </c>
       <c r="AB14">
         <v>100</v>
       </c>
       <c r="AC14">
+        <v>100</v>
+      </c>
+      <c r="AD14">
         <v>30</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>70</v>
       </c>
-      <c r="AE14">
-        <v>10</v>
-      </c>
       <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
         <v>20</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>30</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
         <v>30</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>100</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>30</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>40</v>
-      </c>
-      <c r="AD15">
-        <v>100</v>
       </c>
       <c r="AE15">
         <v>100</v>
@@ -2371,19 +2416,19 @@
       <c r="AH15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16">
+        <v>39</v>
+      </c>
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>5</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -2392,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
         <v>20</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2406,696 +2451,714 @@
       <c r="AH16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1000</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>50</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>30</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T17" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17" t="s">
-        <v>61</v>
-      </c>
-      <c r="V17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W17" t="s">
-        <v>61</v>
-      </c>
-      <c r="X17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1000</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>50</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>30</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
+      <c r="AR22">
         <v>3</v>
       </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ22">
-        <v>3</v>
-      </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ23">
+        <v>53</v>
+      </c>
+      <c r="AR23">
         <v>20</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>20</v>
       </c>
     </row>
@@ -3108,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B175B-F00F-47F8-9A7F-F48C1C0BF04B}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -3121,58 +3184,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>89</v>
       </c>
-      <c r="N1" t="s">
-        <v>90</v>
-      </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
       <c r="R1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3180,52 +3243,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
         <v>2</v>
@@ -3251,16 +3314,16 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -3272,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -3281,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
         <v>4</v>
@@ -3457,7 +3520,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3694,7 +3757,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3750,78 +3813,78 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>10000</v>
@@ -3877,19 +3940,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -3898,19 +3961,19 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M19">
         <v>25</v>
@@ -3922,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -3933,7 +3996,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -3972,7 +4035,7 @@
         <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -3989,7 +4052,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -4045,12 +4108,12 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -4111,39 +4174,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B25"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4157,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4165,8 +4237,14 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4188,8 +4266,14 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4211,8 +4295,14 @@
       <c r="G4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4234,8 +4324,14 @@
       <c r="G5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4257,24 +4353,36 @@
       <c r="G6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4296,8 +4404,14 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4319,8 +4433,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4342,8 +4462,14 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4365,10 +4491,16 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -4388,48 +4520,60 @@
       <c r="G13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4449,10 +4593,16 @@
       <c r="G18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4472,10 +4622,16 @@
       <c r="G19">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.06</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4495,10 +4651,16 @@
       <c r="G20">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4518,15 +4680,21 @@
       <c r="G21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -4546,10 +4714,16 @@
       <c r="G23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -4561,13 +4735,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3C3D16-1280-4F34-BD88-C6C60467F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F1741-FD9D-4EAD-84D5-4B23B98C816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="110">
   <si>
     <t>Schwert</t>
   </si>
@@ -326,27 +326,12 @@
     <t>Schnabel</t>
   </si>
   <si>
-    <t>Seelenbrandt</t>
-  </si>
-  <si>
     <t>Feuerhand</t>
   </si>
   <si>
     <t>Giftzunge</t>
   </si>
   <si>
-    <t>Schwur</t>
-  </si>
-  <si>
-    <t>Erbentöter</t>
-  </si>
-  <si>
-    <t>Verraetersende</t>
-  </si>
-  <si>
-    <t>Hraggstahl</t>
-  </si>
-  <si>
     <t>Grundwaffe</t>
   </si>
   <si>
@@ -371,16 +356,13 @@
     <t>Erwachten_kopflosgift</t>
   </si>
   <si>
-    <t>Crätpranke</t>
-  </si>
-  <si>
     <t>Kurzbogen</t>
   </si>
   <si>
     <t>Langbogen</t>
   </si>
   <si>
-    <t>Gesetz des Reichen</t>
+    <t>Tritt</t>
   </si>
 </sst>
 </file>
@@ -734,19 +716,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AT23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:K23"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -766,10 +748,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -811,79 +793,82 @@
         <v>31</v>
       </c>
       <c r="V1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>106</v>
-      </c>
       <c r="AR1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS1" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -948,7 +933,7 @@
         <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s">
         <v>35</v>
@@ -957,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z2" t="s">
         <v>42</v>
@@ -990,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="AJ2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="s">
         <v>63</v>
@@ -1011,16 +996,19 @@
         <v>63</v>
       </c>
       <c r="AQ2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="AR2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AS2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="V3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
         <v>4</v>
@@ -1097,22 +1085,22 @@
         <v>4</v>
       </c>
       <c r="Z3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="s">
         <v>20</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>4</v>
       </c>
       <c r="AB3" t="s">
         <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
       </c>
       <c r="AE3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s">
         <v>4</v>
@@ -1121,28 +1109,28 @@
         <v>4</v>
       </c>
       <c r="AH3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>20</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>4</v>
       </c>
       <c r="AM3" t="s">
         <v>4</v>
       </c>
       <c r="AN3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="s">
         <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>4</v>
       </c>
       <c r="AP3" t="s">
         <v>4</v>
@@ -1151,13 +1139,16 @@
         <v>4</v>
       </c>
       <c r="AR3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AS3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1222,65 +1213,65 @@
         <v>1</v>
       </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>0.35</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.75</v>
       </c>
-      <c r="Y4">
-        <v>10</v>
-      </c>
       <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
         <v>17</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
         <v>22</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>8</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>25</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>45</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>25</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>8</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>20</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>7</v>
       </c>
-      <c r="AO4">
-        <v>10</v>
-      </c>
       <c r="AP4">
         <v>10</v>
       </c>
@@ -1288,13 +1279,16 @@
         <v>10</v>
       </c>
       <c r="AR4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AS4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1371,67 +1365,70 @@
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>0.3</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.2</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>0.2</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>0.3</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.1</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.05</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.2</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.1</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.2</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>6</v>
       </c>
-      <c r="AN5">
-        <v>10</v>
-      </c>
       <c r="AO5">
         <v>10</v>
       </c>
       <c r="AP5">
+        <v>10</v>
+      </c>
+      <c r="AQ5">
         <v>1</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>0.2</v>
       </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1508,23 +1505,23 @@
         <v>0</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>0.4</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.3</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>0.7</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
         <v>0</v>
       </c>
@@ -1547,11 +1544,11 @@
         <v>0</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>0.2</v>
       </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
       <c r="AO6">
         <v>0</v>
       </c>
@@ -1562,13 +1559,16 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1587,11 +1587,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1610,9 +1610,6 @@
       <c r="K8">
         <v>100</v>
       </c>
-      <c r="Y8">
-        <v>100</v>
-      </c>
       <c r="Z8">
         <v>100</v>
       </c>
@@ -1643,11 +1640,14 @@
       <c r="AI8">
         <v>100</v>
       </c>
-      <c r="AR8">
+      <c r="AJ8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1783,8 +1783,11 @@
       <c r="AS9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>50</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1858,11 +1861,11 @@
         <v>0</v>
       </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>40</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
         <v>0</v>
       </c>
@@ -1879,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>40</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>30</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>20</v>
       </c>
-      <c r="AI10">
-        <v>10</v>
-      </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1912,16 +1915,19 @@
         <v>0</v>
       </c>
       <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
         <v>20</v>
       </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
       <c r="AS10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2013,11 +2019,11 @@
         <v>0</v>
       </c>
       <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>100</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
         <v>0</v>
       </c>
@@ -2057,8 +2063,11 @@
       <c r="AS11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2123,17 +2132,17 @@
         <v>0</v>
       </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>50</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>30</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>5</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
@@ -2194,8 +2203,11 @@
       <c r="AS12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2260,16 +2272,16 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0.5</v>
       </c>
       <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13">
         <v>0.3</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>2.5</v>
       </c>
       <c r="Z13" s="2">
         <v>2.5</v>
@@ -2296,43 +2308,46 @@
         <v>2.5</v>
       </c>
       <c r="AH13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AI13" s="2">
         <v>1.3</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AJ13" s="2">
         <v>1</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.4</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.1</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.8</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>0.5</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1</v>
-      </c>
-      <c r="AO13">
-        <v>0.2</v>
       </c>
       <c r="AP13">
         <v>0.2</v>
       </c>
       <c r="AQ13">
+        <v>0.2</v>
+      </c>
+      <c r="AR13">
         <v>0.1</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
       <c r="AS13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2348,64 +2363,64 @@
       <c r="U14">
         <v>60</v>
       </c>
-      <c r="Y14">
-        <v>60</v>
+      <c r="V14">
+        <v>20</v>
       </c>
       <c r="Z14">
+        <v>60</v>
+      </c>
+      <c r="AA14">
         <v>35</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>15</v>
-      </c>
-      <c r="AB14">
-        <v>100</v>
       </c>
       <c r="AC14">
         <v>100</v>
       </c>
       <c r="AD14">
+        <v>100</v>
+      </c>
+      <c r="AE14">
         <v>30</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>70</v>
       </c>
-      <c r="AF14">
-        <v>10</v>
-      </c>
       <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14">
         <v>20</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>30</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
         <v>30</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>100</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>30</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>40</v>
-      </c>
-      <c r="AE15">
-        <v>100</v>
       </c>
       <c r="AF15">
         <v>100</v>
@@ -2419,19 +2434,19 @@
       <c r="AI15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>5</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -2440,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
         <v>20</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
       </c>
       <c r="AG16">
         <v>1</v>
@@ -2454,8 +2469,11 @@
       <c r="AI16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2583,16 +2601,19 @@
         <v>60</v>
       </c>
       <c r="AQ17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR17" t="s">
         <v>93</v>
       </c>
-      <c r="AR17" t="s">
-        <v>60</v>
-      </c>
       <c r="AS17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2720,16 +2741,19 @@
         <v>0</v>
       </c>
       <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
         <v>1000</v>
       </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
       <c r="AS18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2857,16 +2881,19 @@
         <v>0</v>
       </c>
       <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
         <v>50</v>
       </c>
-      <c r="AR19" t="s">
-        <v>60</v>
-      </c>
       <c r="AS19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2994,16 +3021,19 @@
         <v>0</v>
       </c>
       <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
         <v>30</v>
       </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
       <c r="AS20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3131,34 +3161,37 @@
         <v>0</v>
       </c>
       <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
         <v>3</v>
       </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
       <c r="AS21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>3</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>20</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>20</v>
       </c>
     </row>
@@ -3176,13 +3209,13 @@
       <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3190,7 +3223,7 @@
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>79</v>
@@ -3229,16 +3262,16 @@
         <v>91</v>
       </c>
       <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
         <v>98</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>99</v>
       </c>
       <c r="R1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3294,7 +3327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +3439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3462,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3518,12 +3551,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3531,7 +3564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +3620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3643,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3699,7 +3732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3811,22 +3844,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3882,7 +3915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3938,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3994,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4050,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4106,12 +4139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4174,580 +4207,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>45</v>
       </c>
-      <c r="C4">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>0.4</v>
       </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <v>0.4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.2</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13">
         <v>0.2</v>
       </c>
-      <c r="C13">
-        <v>0.2</v>
-      </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.06</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>64</v>
-      </c>
-      <c r="G19">
-        <v>0.06</v>
-      </c>
-      <c r="H19">
-        <v>0.06</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
       <c r="B23">
         <v>14</v>
       </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F1741-FD9D-4EAD-84D5-4B23B98C816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E84875-ED11-43E7-933D-501ED5C13D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -718,17 +718,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
   <dimension ref="A1:AT23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -868,7 +868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3206,16 +3206,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.52734375" customWidth="1"/>
+    <col min="2" max="3" width="15.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3551,12 +3551,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3844,22 +3844,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4139,12 +4139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4209,17 +4209,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88FE72-617A-43B5-8753-3AC72A1D934B}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4267,17 +4267,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4317,22 +4317,22 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4372,12 +4372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>99</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E84875-ED11-43E7-933D-501ED5C13D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF46D36-3CE2-4794-B16A-0B0B85594F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="111">
   <si>
     <t>Schwert</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Tritt</t>
+  </si>
+  <si>
+    <t>Giftwurfmesser</t>
   </si>
 </sst>
 </file>
@@ -420,9 +423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -566,7 +569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -716,19 +719,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4670-742C-4871-BCD2-E6FA6AAE7CE2}">
-  <dimension ref="A1:AT23"/>
+  <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -814,61 +817,64 @@
         <v>43</v>
       </c>
       <c r="AC1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -978,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="AK2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="s">
         <v>63</v>
@@ -999,16 +1005,19 @@
         <v>63</v>
       </c>
       <c r="AR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" t="s">
         <v>102</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>72</v>
       </c>
       <c r="AT2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1097,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="AD3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="s">
         <v>20</v>
       </c>
       <c r="AF3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="s">
         <v>4</v>
@@ -1112,28 +1121,28 @@
         <v>4</v>
       </c>
       <c r="AI3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>20</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>20</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>4</v>
       </c>
       <c r="AN3" t="s">
         <v>4</v>
       </c>
       <c r="AO3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" t="s">
         <v>62</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>4</v>
       </c>
       <c r="AQ3" t="s">
         <v>4</v>
@@ -1142,13 +1151,16 @@
         <v>4</v>
       </c>
       <c r="AS3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1234,47 +1246,47 @@
         <v>8</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>22</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>25</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>45</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>25</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>8</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>20</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>7</v>
       </c>
-      <c r="AP4">
-        <v>10</v>
-      </c>
       <c r="AQ4">
         <v>10</v>
       </c>
@@ -1282,13 +1294,16 @@
         <v>10</v>
       </c>
       <c r="AS4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AT4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1374,61 +1389,64 @@
         <v>0.2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>0.2</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>0.3</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.1</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.05</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.1</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.2</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>6</v>
       </c>
-      <c r="AO5">
-        <v>10</v>
-      </c>
       <c r="AP5">
         <v>10</v>
       </c>
       <c r="AQ5">
+        <v>10</v>
+      </c>
+      <c r="AR5">
         <v>1</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>0.2</v>
       </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
       <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1514,17 +1532,17 @@
         <v>0.3</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>0.7</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
         <v>0</v>
       </c>
@@ -1547,11 +1565,11 @@
         <v>0</v>
       </c>
       <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>0.2</v>
       </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
       <c r="AP6">
         <v>0</v>
       </c>
@@ -1562,13 +1580,16 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1587,11 +1608,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1643,11 +1664,14 @@
       <c r="AJ8">
         <v>100</v>
       </c>
-      <c r="AS8">
+      <c r="AK8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AT8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1786,8 +1810,11 @@
       <c r="AT9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1885,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>40</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>30</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>20</v>
       </c>
-      <c r="AJ10">
-        <v>10</v>
-      </c>
       <c r="AK10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1918,16 +1945,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>20</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
       <c r="AT10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2022,11 +2052,11 @@
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>100</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
       <c r="AH11">
         <v>0</v>
       </c>
@@ -2066,8 +2096,11 @@
       <c r="AT11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2206,8 +2239,11 @@
       <c r="AT12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2311,43 +2347,46 @@
         <v>2.5</v>
       </c>
       <c r="AI13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AJ13" s="2">
         <v>1.3</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AK13" s="2">
         <v>1</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.4</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.1</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>0.8</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0.5</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>1</v>
-      </c>
-      <c r="AP13">
-        <v>0.2</v>
       </c>
       <c r="AQ13">
         <v>0.2</v>
       </c>
       <c r="AR13">
+        <v>0.2</v>
+      </c>
+      <c r="AS13">
         <v>0.1</v>
       </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
       <c r="AT13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2376,31 +2415,34 @@
         <v>15</v>
       </c>
       <c r="AC14">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AD14">
         <v>100</v>
       </c>
       <c r="AE14">
+        <v>100</v>
+      </c>
+      <c r="AF14">
         <v>30</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>70</v>
       </c>
-      <c r="AG14">
-        <v>10</v>
-      </c>
       <c r="AH14">
+        <v>10</v>
+      </c>
+      <c r="AI14">
         <v>20</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>30</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2414,16 +2456,16 @@
         <v>30</v>
       </c>
       <c r="AC15">
+        <v>30</v>
+      </c>
+      <c r="AD15">
         <v>100</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>30</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>40</v>
-      </c>
-      <c r="AF15">
-        <v>100</v>
       </c>
       <c r="AG15">
         <v>100</v>
@@ -2437,8 +2479,11 @@
       <c r="AJ15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AK15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -2458,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
         <v>20</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
       </c>
       <c r="AH16">
         <v>1</v>
@@ -2472,8 +2517,11 @@
       <c r="AJ16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AK16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2559,7 +2607,7 @@
         <v>60</v>
       </c>
       <c r="AC17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD17" t="s">
         <v>60</v>
@@ -2604,16 +2652,19 @@
         <v>60</v>
       </c>
       <c r="AR17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS17" t="s">
         <v>93</v>
       </c>
-      <c r="AS17" t="s">
-        <v>60</v>
-      </c>
       <c r="AT17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2744,16 +2795,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>1000</v>
       </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
       <c r="AT18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2839,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -2884,16 +2938,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>50</v>
       </c>
-      <c r="AS19" t="s">
-        <v>60</v>
-      </c>
       <c r="AT19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2979,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3024,16 +3081,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>30</v>
       </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
       <c r="AT20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3119,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3164,34 +3224,37 @@
         <v>0</v>
       </c>
       <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>3</v>
       </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
       <c r="AT21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.5">
+      <c r="AU21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>3</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>20</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>20</v>
       </c>
     </row>
@@ -3209,13 +3272,13 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
-    <col min="2" max="3" width="15.87890625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3271,7 +3334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3327,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3383,7 +3446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3439,7 +3502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3551,12 +3614,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3676,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3732,7 +3795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3788,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3844,22 +3907,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3915,7 +3978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3971,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -4027,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4083,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4139,12 +4202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4214,12 +4277,12 @@
       <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.87890625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -4227,7 +4290,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4235,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4259,7 +4322,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4267,17 +4330,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4301,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4309,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4317,22 +4380,22 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4340,7 +4403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4348,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -4356,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -4364,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4372,12 +4435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4385,7 +4448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF46D36-3CE2-4794-B16A-0B0B85594F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03891F57-7F53-443F-95B6-A101A32259E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
@@ -722,8 +722,8 @@
   <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC22" sqref="AC22"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,10 +2418,10 @@
         <v>15</v>
       </c>
       <c r="AD14">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AF14">
         <v>30</v>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107DA97D-5D4D-49E9-B3F5-72A77FA9DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1FC62D-6D35-481F-861E-88968AE61CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-23148" yWindow="8040" windowWidth="23256" windowHeight="12720" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="53" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
   <si>
     <t>Attribute</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>Molotovika T5</t>
+  </si>
+  <si>
+    <t>Schaufel des Allgotts</t>
   </si>
 </sst>
 </file>
@@ -475,12 +478,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -795,32 +796,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045624FE-DB3F-4F05-A3E1-E8405A9EBB33}">
-  <dimension ref="A1:BG28"/>
+  <dimension ref="A1:BH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ25" sqref="AQ25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.40625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -832,16 +833,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -859,7 +860,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -869,124 +870,127 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>131</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>130</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>132</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>133</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
         <v>59</v>
@@ -1063,7 +1067,7 @@
         <v>59</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA2" t="s">
         <v>60</v>
@@ -1078,7 +1082,7 @@
         <v>60</v>
       </c>
       <c r="AE2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="s">
         <v>31</v>
@@ -1087,7 +1091,7 @@
         <v>31</v>
       </c>
       <c r="AH2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="AI2" t="s">
         <v>61</v>
@@ -1111,40 +1115,40 @@
         <v>61</v>
       </c>
       <c r="AP2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU2" t="s">
         <v>129</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>129</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>129</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>129</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>61</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>61</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>62</v>
       </c>
       <c r="BB2" t="s">
         <v>62</v>
@@ -1156,16 +1160,19 @@
         <v>62</v>
       </c>
       <c r="BE2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BG2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.75">
+        <v>62</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1230,19 +1237,19 @@
         <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W3" t="s">
         <v>68</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y3" t="s">
         <v>67</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
         <v>66</v>
@@ -1254,10 +1261,10 @@
         <v>66</v>
       </c>
       <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" t="s">
         <v>67</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>66</v>
       </c>
       <c r="AF3" t="s">
         <v>66</v>
@@ -1269,10 +1276,10 @@
         <v>66</v>
       </c>
       <c r="AI3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>67</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>66</v>
       </c>
       <c r="AK3" t="s">
         <v>66</v>
@@ -1281,22 +1288,22 @@
         <v>66</v>
       </c>
       <c r="AM3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN3" t="s">
         <v>67</v>
       </c>
       <c r="AO3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP3" t="s">
         <v>66</v>
       </c>
       <c r="AQ3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="s">
         <v>66</v>
@@ -1308,28 +1315,28 @@
         <v>66</v>
       </c>
       <c r="AV3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AX3" t="s">
         <v>66</v>
       </c>
       <c r="AY3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA3" t="s">
         <v>67</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>66</v>
       </c>
-      <c r="BA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>68</v>
-      </c>
       <c r="BC3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BD3" t="s">
         <v>66</v>
@@ -1338,13 +1345,16 @@
         <v>66</v>
       </c>
       <c r="BF3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BG3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.75">
+        <v>66</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1352,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
         <v>1.2</v>
@@ -1364,34 +1374,34 @@
         <v>0.8</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.4</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
         <v>1.5</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1406,124 +1416,127 @@
         <v>0.8</v>
       </c>
       <c r="U4">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V4">
         <v>0.7</v>
       </c>
       <c r="W4">
+        <v>0.7</v>
+      </c>
+      <c r="X4">
+        <v>0.6</v>
+      </c>
+      <c r="Y4">
+        <v>0.8</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
         <v>0.5</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
+        <v>0.6</v>
+      </c>
+      <c r="AC4">
         <v>0.8</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>0.5</v>
-      </c>
-      <c r="AA4">
-        <v>0.6</v>
-      </c>
-      <c r="AB4">
-        <v>0.8</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>0.35</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.75</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>10</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>17</v>
-      </c>
-      <c r="AJ4">
-        <v>8</v>
       </c>
       <c r="AK4">
         <v>8</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>22</v>
       </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
       <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
+        <v>80</v>
+      </c>
+      <c r="AR4">
+        <v>80</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
         <v>3</v>
       </c>
-      <c r="AQ4">
+      <c r="AU4">
         <v>50</v>
       </c>
-      <c r="AR4">
+      <c r="AV4">
         <v>100</v>
       </c>
-      <c r="AS4">
+      <c r="AW4">
         <v>200</v>
       </c>
-      <c r="AT4">
+      <c r="AX4">
         <v>300</v>
-      </c>
-      <c r="AU4">
-        <v>8</v>
-      </c>
-      <c r="AV4">
-        <v>25</v>
-      </c>
-      <c r="AW4">
-        <v>45</v>
-      </c>
-      <c r="AX4">
-        <v>25</v>
       </c>
       <c r="AY4">
         <v>8</v>
       </c>
       <c r="AZ4">
+        <v>25</v>
+      </c>
+      <c r="BA4">
+        <v>45</v>
+      </c>
+      <c r="BB4">
+        <v>25</v>
+      </c>
+      <c r="BC4">
+        <v>8</v>
+      </c>
+      <c r="BD4">
         <v>20</v>
       </c>
-      <c r="BA4">
+      <c r="BE4">
         <v>4</v>
       </c>
-      <c r="BB4">
+      <c r="BF4">
         <v>7</v>
       </c>
-      <c r="BC4">
+      <c r="BG4">
         <v>10</v>
       </c>
-      <c r="BD4">
+      <c r="BH4">
         <v>10</v>
       </c>
-      <c r="BE4">
-        <v>10</v>
-      </c>
-      <c r="BF4">
-        <v>80</v>
-      </c>
-      <c r="BG4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1531,7 +1544,7 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
         <v>0.4</v>
@@ -1555,7 +1568,7 @@
         <v>0.4</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0.2</v>
@@ -1585,37 +1598,37 @@
         <v>0.3</v>
       </c>
       <c r="U5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V5">
         <v>0.1</v>
       </c>
       <c r="W5">
+        <v>0.1</v>
+      </c>
+      <c r="X5">
         <v>0.3</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.3</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.6</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.1</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.6</v>
       </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1627,34 +1640,34 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0.3</v>
-      </c>
-      <c r="AJ5">
-        <v>0.2</v>
       </c>
       <c r="AK5">
         <v>0.2</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>0.2</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1663,46 +1676,49 @@
         <v>0</v>
       </c>
       <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
         <v>0.3</v>
       </c>
-      <c r="AV5">
+      <c r="AZ5">
         <v>0.1</v>
       </c>
-      <c r="AW5">
+      <c r="BA5">
         <v>0.05</v>
       </c>
-      <c r="AX5">
+      <c r="BB5">
         <v>0.2</v>
       </c>
-      <c r="AY5">
+      <c r="BC5">
         <v>0.1</v>
       </c>
-      <c r="AZ5">
+      <c r="BD5">
         <v>0.2</v>
       </c>
-      <c r="BA5">
+      <c r="BE5">
         <v>6</v>
       </c>
-      <c r="BB5">
+      <c r="BF5">
         <v>10</v>
       </c>
-      <c r="BC5">
+      <c r="BG5">
         <v>10</v>
       </c>
-      <c r="BD5">
-        <v>1</v>
-      </c>
-      <c r="BE5">
-        <v>0.2</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1764,32 +1780,32 @@
         <v>0.4</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>0.7</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.1</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>0.35</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.25</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.3</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.7</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.8</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -1806,34 +1822,34 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0.4</v>
-      </c>
-      <c r="AJ6">
-        <v>0.3</v>
       </c>
       <c r="AK6">
         <v>0.3</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>0.7</v>
       </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -1860,28 +1876,31 @@
         <v>0</v>
       </c>
       <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
         <v>0.2</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
       <c r="BF6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1895,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1943,124 +1962,127 @@
         <v>4</v>
       </c>
       <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
         <v>2</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3</v>
-      </c>
-      <c r="Z7">
-        <v>10</v>
       </c>
       <c r="AA7">
         <v>10</v>
       </c>
       <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
         <v>8</v>
-      </c>
-      <c r="AC7">
-        <v>10</v>
       </c>
       <c r="AD7">
         <v>10</v>
       </c>
       <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
         <v>6</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>6</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>8</v>
-      </c>
-      <c r="AJ7">
-        <v>10</v>
       </c>
       <c r="AK7">
         <v>10</v>
       </c>
       <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
         <v>5</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>3</v>
-      </c>
-      <c r="AN7">
-        <v>6</v>
       </c>
       <c r="AO7">
         <v>6</v>
       </c>
       <c r="AP7">
+        <v>5</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>6</v>
+      </c>
+      <c r="AT7">
         <v>7</v>
       </c>
-      <c r="AQ7">
+      <c r="AU7">
         <v>10</v>
       </c>
-      <c r="AR7">
+      <c r="AV7">
         <v>10</v>
       </c>
-      <c r="AS7">
+      <c r="AW7">
         <v>10</v>
       </c>
-      <c r="AT7">
+      <c r="AX7">
         <v>10</v>
       </c>
-      <c r="AU7">
+      <c r="AY7">
         <v>7</v>
       </c>
-      <c r="AV7">
+      <c r="AZ7">
         <v>5</v>
       </c>
-      <c r="AW7">
+      <c r="BA7">
         <v>3</v>
       </c>
-      <c r="AX7">
+      <c r="BB7">
         <v>6</v>
       </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
         <v>2</v>
       </c>
-      <c r="BA7">
+      <c r="BE7">
         <v>6</v>
       </c>
-      <c r="BB7">
+      <c r="BF7">
         <v>4</v>
       </c>
-      <c r="BC7">
+      <c r="BG7">
         <v>4</v>
       </c>
-      <c r="BD7">
+      <c r="BH7">
         <v>3</v>
       </c>
-      <c r="BE7">
-        <v>5</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.75">
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -2086,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -2116,110 +2138,110 @@
         <v>80</v>
       </c>
       <c r="S8">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="T8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="U8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V8">
+        <v>65</v>
+      </c>
+      <c r="W8">
         <v>10</v>
       </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
       <c r="X8">
+        <v>30</v>
+      </c>
+      <c r="Y8">
         <v>10</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>40</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
       </c>
       <c r="AA8">
         <v>5</v>
       </c>
       <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
         <v>15</v>
-      </c>
-      <c r="AC8">
-        <v>5</v>
       </c>
       <c r="AD8">
         <v>5</v>
       </c>
       <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8">
         <v>15</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>20</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>35</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>15</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>15</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>60</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
       <c r="AP8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ8">
+        <v>90</v>
+      </c>
+      <c r="AR8">
+        <v>90</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>100</v>
       </c>
-      <c r="AR8">
+      <c r="AV8">
         <v>100</v>
       </c>
-      <c r="AS8">
+      <c r="AW8">
         <v>100</v>
       </c>
-      <c r="AT8">
+      <c r="AX8">
         <v>100</v>
       </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>20</v>
       </c>
-      <c r="AW8">
+      <c r="BA8">
         <v>60</v>
       </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
       <c r="BB8">
         <v>0</v>
       </c>
@@ -2230,16 +2252,19 @@
         <v>0</v>
       </c>
       <c r="BE8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2261,11 +2286,11 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="BF9">
+      <c r="AQ9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2288,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2310,9 +2335,6 @@
       <c r="R11">
         <v>85</v>
       </c>
-      <c r="AH11">
-        <v>100</v>
-      </c>
       <c r="AI11">
         <v>100</v>
       </c>
@@ -2334,15 +2356,9 @@
       <c r="AO11">
         <v>100</v>
       </c>
-      <c r="AP11">
-        <v>100</v>
-      </c>
       <c r="AQ11">
         <v>100</v>
       </c>
-      <c r="AR11">
-        <v>100</v>
-      </c>
       <c r="AS11">
         <v>100</v>
       </c>
@@ -2358,11 +2374,20 @@
       <c r="AW11">
         <v>100</v>
       </c>
-      <c r="BF11">
+      <c r="AX11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="AY11">
+        <v>100</v>
+      </c>
+      <c r="AZ11">
+        <v>100</v>
+      </c>
+      <c r="BA11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2384,20 +2409,20 @@
       <c r="R12" t="s">
         <v>78</v>
       </c>
-      <c r="AQ12">
+      <c r="AU12">
         <v>3</v>
       </c>
-      <c r="AR12">
+      <c r="AV12">
         <v>3</v>
       </c>
-      <c r="AS12">
+      <c r="AW12">
         <v>5</v>
       </c>
-      <c r="AT12">
+      <c r="AX12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2477,13 +2502,13 @@
         <v>80</v>
       </c>
       <c r="AA13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s">
         <v>81</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s">
         <v>80</v>
@@ -2575,8 +2600,11 @@
       <c r="BG13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2638,37 +2666,37 @@
         <v>0</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>30</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>75</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>50</v>
       </c>
-      <c r="AD14">
-        <v>80</v>
-      </c>
       <c r="AE14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2677,11 +2705,11 @@
         <v>0</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>40</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
       <c r="AJ14">
         <v>0</v>
       </c>
@@ -2701,41 +2729,41 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AQ14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT14">
         <v>40</v>
       </c>
       <c r="AU14">
+        <v>40</v>
+      </c>
+      <c r="AV14">
+        <v>40</v>
+      </c>
+      <c r="AW14">
+        <v>40</v>
+      </c>
+      <c r="AX14">
+        <v>40</v>
+      </c>
+      <c r="AY14">
         <v>30</v>
       </c>
-      <c r="AV14">
+      <c r="AZ14">
         <v>20</v>
       </c>
-      <c r="AW14">
+      <c r="BA14">
         <v>10</v>
       </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
       <c r="BB14">
         <v>0</v>
       </c>
@@ -2746,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BE14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -2754,8 +2782,11 @@
       <c r="BG14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2832,22 +2863,22 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AA15">
+        <v>90</v>
+      </c>
+      <c r="AB15">
         <v>70</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>100</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2877,34 +2908,34 @@
         <v>0</v>
       </c>
       <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>100</v>
       </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>80</v>
-      </c>
-      <c r="AR15">
-        <v>80</v>
-      </c>
-      <c r="AS15">
-        <v>80</v>
-      </c>
       <c r="AT15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -2933,8 +2964,11 @@
       <c r="BG15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3026,17 +3060,17 @@
         <v>0</v>
       </c>
       <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>50</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>25</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>10</v>
       </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
       <c r="AI16">
         <v>0</v>
       </c>
@@ -3112,8 +3146,11 @@
       <c r="BG16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -3178,19 +3215,19 @@
         <v>0.3</v>
       </c>
       <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
         <v>1.3</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.4</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.7</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.5</v>
-      </c>
-      <c r="Z17">
-        <v>0.1</v>
       </c>
       <c r="AA17">
         <v>0.1</v>
@@ -3199,22 +3236,22 @@
         <v>0.1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0.5</v>
       </c>
       <c r="AG17">
+        <v>0.5</v>
+      </c>
+      <c r="AH17">
         <v>0.3</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>2.5</v>
       </c>
       <c r="AI17" s="2">
         <v>2.5</v>
@@ -3237,14 +3274,14 @@
       <c r="AO17" s="2">
         <v>2.5</v>
       </c>
-      <c r="AP17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>2.5</v>
+      <c r="AP17">
+        <v>0.1</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
       </c>
       <c r="AS17" s="2">
         <v>2.5</v>
@@ -3256,146 +3293,137 @@
         <v>2.5</v>
       </c>
       <c r="AV17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AZ17" s="2">
         <v>1.3</v>
       </c>
-      <c r="AW17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX17">
+      <c r="BA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB17">
         <v>0.4</v>
       </c>
-      <c r="AY17">
+      <c r="BC17">
         <v>0.1</v>
       </c>
-      <c r="AZ17">
+      <c r="BD17">
         <v>0.8</v>
       </c>
-      <c r="BA17">
+      <c r="BE17">
         <v>0.5</v>
       </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
         <v>0.2</v>
       </c>
-      <c r="BD17">
+      <c r="BH17">
         <v>0.2</v>
       </c>
-      <c r="BE17">
-        <v>0.1</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.75">
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>86</v>
       </c>
-      <c r="Z18">
-        <v>80</v>
-      </c>
       <c r="AA18">
+        <v>80</v>
+      </c>
+      <c r="AB18">
         <v>30</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>10</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>60</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>20</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>60</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>35</v>
-      </c>
-      <c r="AJ18">
-        <v>15</v>
       </c>
       <c r="AK18">
         <v>15</v>
       </c>
       <c r="AL18">
+        <v>15</v>
+      </c>
+      <c r="AM18">
         <v>99</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>200</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>30</v>
       </c>
-      <c r="AO18">
+      <c r="AS18">
         <v>70</v>
-      </c>
-      <c r="AP18">
-        <v>10</v>
-      </c>
-      <c r="AQ18">
-        <v>10</v>
-      </c>
-      <c r="AR18">
-        <v>10</v>
-      </c>
-      <c r="AS18">
-        <v>10</v>
       </c>
       <c r="AT18">
         <v>10</v>
       </c>
       <c r="AU18">
+        <v>10</v>
+      </c>
+      <c r="AV18">
+        <v>10</v>
+      </c>
+      <c r="AW18">
+        <v>10</v>
+      </c>
+      <c r="AX18">
+        <v>10</v>
+      </c>
+      <c r="AY18">
         <v>20</v>
       </c>
-      <c r="AV18">
+      <c r="AZ18">
         <v>30</v>
       </c>
-      <c r="AW18">
+      <c r="BA18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>10</v>
-      </c>
-      <c r="AJ19">
-        <v>30</v>
       </c>
       <c r="AK19">
         <v>30</v>
       </c>
       <c r="AL19">
+        <v>30</v>
+      </c>
+      <c r="AM19">
         <v>100</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>30</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>40</v>
-      </c>
-      <c r="AO19">
-        <v>100</v>
-      </c>
-      <c r="AP19">
-        <v>100</v>
-      </c>
-      <c r="AQ19">
-        <v>100</v>
-      </c>
-      <c r="AR19">
-        <v>100</v>
       </c>
       <c r="AS19">
         <v>100</v>
@@ -3412,22 +3440,31 @@
       <c r="AW19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="AX19">
+        <v>100</v>
+      </c>
+      <c r="AY19">
+        <v>100</v>
+      </c>
+      <c r="AZ19">
+        <v>100</v>
+      </c>
+      <c r="BA19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>88</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2</v>
-      </c>
-      <c r="AJ20">
-        <v>5</v>
       </c>
       <c r="AK20">
         <v>5</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -3436,20 +3473,11 @@
         <v>1</v>
       </c>
       <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
         <v>20</v>
       </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-      <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AS20">
-        <v>1</v>
-      </c>
       <c r="AT20">
         <v>1</v>
       </c>
@@ -3462,8 +3490,20 @@
       <c r="AW20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -3573,11 +3613,11 @@
         <v>90</v>
       </c>
       <c r="AK21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" t="s">
         <v>91</v>
       </c>
-      <c r="AL21" t="s">
-        <v>90</v>
-      </c>
       <c r="AM21" t="s">
         <v>90</v>
       </c>
@@ -3588,32 +3628,32 @@
         <v>90</v>
       </c>
       <c r="AP21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AQ21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU21" t="s">
         <v>92</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AV21" t="s">
         <v>92</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AW21" t="s">
         <v>92</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AX21" t="s">
         <v>92</v>
       </c>
-      <c r="AU21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>90</v>
-      </c>
       <c r="AY21" t="s">
         <v>90</v>
       </c>
@@ -3633,7 +3673,7 @@
         <v>90</v>
       </c>
       <c r="BE21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BF21" t="s">
         <v>90</v>
@@ -3641,8 +3681,11 @@
       <c r="BG21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3752,11 +3795,11 @@
         <v>0</v>
       </c>
       <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>2</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
       <c r="AM22">
         <v>0</v>
       </c>
@@ -3767,31 +3810,31 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -3812,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="BE22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF22">
         <v>0</v>
@@ -3820,8 +3863,11 @@
       <c r="BG22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -3931,11 +3977,11 @@
         <v>0</v>
       </c>
       <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>20</v>
       </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
       <c r="AM23">
         <v>0</v>
       </c>
@@ -3946,31 +3992,31 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
         <v>50</v>
       </c>
-      <c r="AR23">
+      <c r="AQ23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
         <v>50</v>
       </c>
-      <c r="AS23">
+      <c r="AV23">
         <v>50</v>
       </c>
-      <c r="AT23">
+      <c r="AW23">
         <v>50</v>
       </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
       <c r="AX23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AY23">
         <v>0</v>
@@ -3991,16 +4037,19 @@
         <v>0</v>
       </c>
       <c r="BE23">
-        <v>50</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>90</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -4110,11 +4159,11 @@
         <v>0</v>
       </c>
       <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>40</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
       <c r="AM24">
         <v>0</v>
       </c>
@@ -4125,32 +4174,32 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
         <v>50</v>
       </c>
-      <c r="AR24">
+      <c r="AV24">
         <v>50</v>
       </c>
-      <c r="AS24">
+      <c r="AW24">
         <v>50</v>
       </c>
-      <c r="AT24">
+      <c r="AX24">
         <v>50</v>
       </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
       <c r="AY24">
         <v>0</v>
       </c>
@@ -4170,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BE24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -4178,8 +4227,11 @@
       <c r="BG24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -4289,11 +4341,11 @@
         <v>0</v>
       </c>
       <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>4</v>
       </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
       <c r="AM25">
         <v>0</v>
       </c>
@@ -4304,32 +4356,32 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
         <v>3</v>
       </c>
-      <c r="AR25">
+      <c r="AV25">
         <v>3</v>
       </c>
-      <c r="AS25">
+      <c r="AW25">
         <v>3</v>
       </c>
-      <c r="AT25">
+      <c r="AX25">
         <v>3</v>
       </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
       <c r="AY25">
         <v>0</v>
       </c>
@@ -4349,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="BE25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF25">
         <v>0</v>
@@ -4357,30 +4409,33 @@
       <c r="BG25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.75">
+      <c r="BH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="BF26">
+      <c r="AQ26">
         <v>3</v>
       </c>
-      <c r="BG26">
+      <c r="AR26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>98</v>
       </c>
-      <c r="BF27">
+      <c r="AQ27">
         <v>20</v>
       </c>
-      <c r="BG27">
+      <c r="AR27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -4442,121 +4497,124 @@
         <v>4</v>
       </c>
       <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
         <v>8</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3</v>
-      </c>
-      <c r="W28">
-        <v>5</v>
       </c>
       <c r="X28">
         <v>5</v>
       </c>
       <c r="Y28">
+        <v>5</v>
+      </c>
+      <c r="Z28">
         <v>7</v>
       </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
         <v>2</v>
       </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
         <v>3</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>8</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.5</v>
       </c>
-      <c r="AI28">
-        <v>1</v>
-      </c>
       <c r="AJ28">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AK28">
         <v>0.2</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
         <v>3</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>2</v>
       </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
       <c r="AP28">
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AR28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28">
         <v>1</v>
       </c>
       <c r="AU28">
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
         <v>2</v>
       </c>
-      <c r="AV28">
+      <c r="AZ28">
         <v>4</v>
       </c>
-      <c r="AW28">
+      <c r="BA28">
         <v>8</v>
       </c>
-      <c r="AX28">
+      <c r="BB28">
         <v>2</v>
       </c>
-      <c r="AY28">
+      <c r="BC28">
         <v>3</v>
       </c>
-      <c r="AZ28">
-        <v>1</v>
-      </c>
-      <c r="BA28">
-        <v>1</v>
-      </c>
-      <c r="BB28">
+      <c r="BD28">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
+      </c>
+      <c r="BF28">
         <v>3</v>
       </c>
-      <c r="BC28">
-        <v>1</v>
-      </c>
-      <c r="BD28">
-        <v>1</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>12</v>
-      </c>
       <c r="BG28">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="BH28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/Waffen.xlsx
+++ b/Container/Data/Waffen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1FC62D-6D35-481F-861E-88968AE61CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139EAFD1-5099-42FC-9C31-F658FAB9B41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="8040" windowWidth="23256" windowHeight="12720" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
+    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" xr2:uid="{67F67F06-402A-4409-9BD1-3CBEDF4A5834}"/>
   </bookViews>
   <sheets>
     <sheet name="Waffen" sheetId="53" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="136">
   <si>
     <t>Attribute</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Schaufel des Allgotts</t>
+  </si>
+  <si>
+    <t>Preis</t>
   </si>
 </sst>
 </file>
@@ -796,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045624FE-DB3F-4F05-A3E1-E8405A9EBB33}">
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BH29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1371,7 +1374,7 @@
         <v>0.7</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="G4">
         <v>0.45</v>
@@ -1395,10 +1398,10 @@
         <v>0.8</v>
       </c>
       <c r="N4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4">
         <v>1.3</v>
-      </c>
-      <c r="O4">
-        <v>1.5</v>
       </c>
       <c r="P4">
         <v>0.9</v>
@@ -1410,10 +1413,10 @@
         <v>2</v>
       </c>
       <c r="S4">
+        <v>0.8</v>
+      </c>
+      <c r="T4">
         <v>1</v>
-      </c>
-      <c r="T4">
-        <v>0.8</v>
       </c>
       <c r="U4">
         <v>1.1000000000000001</v>
@@ -2138,13 +2141,13 @@
         <v>80</v>
       </c>
       <c r="S8">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="V8">
         <v>65</v>
@@ -2159,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA8">
         <v>5</v>
@@ -2800,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2815,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3167,7 +3170,7 @@
         <v>0.2</v>
       </c>
       <c r="F17">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="G17">
         <v>0.3</v>
@@ -4440,7 +4443,7 @@
         <v>99</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4449,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -4464,19 +4467,19 @@
         <v>3</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>3</v>
@@ -4494,10 +4497,10 @@
         <v>3</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V28">
         <v>8</v>
@@ -4515,13 +4518,13 @@
         <v>7</v>
       </c>
       <c r="AA28">
+        <v>0.3</v>
+      </c>
+      <c r="AB28">
+        <v>0.3</v>
+      </c>
+      <c r="AC28">
         <v>1</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>2</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4615,6 +4618,113 @@
       </c>
       <c r="BH28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1.2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29">
+        <v>0.7</v>
+      </c>
+      <c r="G29">
+        <v>0.4</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <v>1.2</v>
+      </c>
+      <c r="J29">
+        <v>0.4</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.9</v>
+      </c>
+      <c r="N29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O29">
+        <v>1.5</v>
+      </c>
+      <c r="P29">
+        <v>1.2</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>1.5</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1.3</v>
+      </c>
+      <c r="W29">
+        <v>0.7</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z29">
+        <v>1.5</v>
+      </c>
+      <c r="AA29">
+        <v>0.2</v>
+      </c>
+      <c r="AB29">
+        <v>0.4</v>
+      </c>
+      <c r="AC29">
+        <v>0.7</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0.4</v>
+      </c>
+      <c r="AG29">
+        <v>0.8</v>
+      </c>
+      <c r="AH29">
+        <v>1.2</v>
+      </c>
+      <c r="AI29">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
